--- a/doc/raw/uart_cmd_def_velaLab.xlsx
+++ b/doc/raw/uart_cmd_def_velaLab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspaces\GIT\vela-lab\doc\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A78B5-E069-4E22-9BA2-5D825D8B1EB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F49183-015C-4D7E-A010-23A83B529358}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14595" xr2:uid="{C6D977CF-F7CB-4543-B67E-C59C5491AFD9}"/>
+    <workbookView xWindow="-120" yWindow="-18480" windowWidth="29040" windowHeight="18240" xr2:uid="{C6D977CF-F7CB-4543-B67E-C59C5491AFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t>code (0x)</t>
   </si>
@@ -685,6 +685,201 @@
     <t>0002</t>
   </si>
   <si>
+    <t>[app_error_code]</t>
+  </si>
+  <si>
+    <t>Asyncronous errors event. Errors in response of a comand should be sent with uart_event_app_level_ack</t>
+  </si>
+  <si>
+    <t>uart_set_bt_tof_state</t>
+  </si>
+  <si>
+    <t>0500</t>
+  </si>
+  <si>
+    <r>
+      <t>[bt_state]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[bt_adv_name_char0]...[bt_adv_name_charN]</t>
+    </r>
+  </si>
+  <si>
+    <t>(rssi and tof model should be sent by the target)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>{node_M+1_report}….{node_H_report}</t>
+  </si>
+  <si>
+    <t>{node_H+1_report}….{node_N_report}</t>
+  </si>
+  <si>
+    <r>
+      <t>uart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bt_neighbors_report_start</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bt_neighbors_report_more_data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_bt_neighbors_report_end_of_data</t>
+    </r>
+  </si>
+  <si>
+    <t>0281*</t>
+  </si>
+  <si>
+    <t>0282*</t>
+  </si>
+  <si>
+    <t>0283*</t>
+  </si>
+  <si>
+    <t>*there are actually events, not responses</t>
+  </si>
+  <si>
+    <t>uart_request_bt_tof_report</t>
+  </si>
+  <si>
+    <t>[interval 31:24][interval 23:16][interval 15:8][interval 7:0]</t>
+  </si>
+  <si>
+    <t>00A1</t>
+  </si>
+  <si>
+    <t>01A1</t>
+  </si>
+  <si>
+    <t>uart_event_bt_tof_start</t>
+  </si>
+  <si>
+    <t>uart_event_bt_tof_more_data</t>
+  </si>
+  <si>
+    <t>uart_event_bt_tof_end_of_data</t>
+  </si>
+  <si>
+    <t>00A2</t>
+  </si>
+  <si>
+    <t>00A3</t>
+  </si>
+  <si>
+    <t>{node_1_tof_report}{node_2_tof_report}…{node_M_tof_report}</t>
+  </si>
+  <si>
+    <t>{node_M+1_tof_report}….{node_H_tof_report}</t>
+  </si>
+  <si>
+    <t>{node_H+1_tof_report}….{node_N_tof_report}</t>
+  </si>
+  <si>
+    <t>tof_report to be defined, but similar to the other</t>
+  </si>
+  <si>
+    <t>uart_set_bt_tof_kf_parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[KF_settings_like_covariance_matrices] </t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[tof_state]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[buff_len 15:8][buff_len 7:0]</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">[app_ack_state][pkt_type </t>
     </r>
@@ -766,185 +961,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>[app_error_code]</t>
-  </si>
-  <si>
-    <t>Asyncronous errors event. Errors in response of a comand should be sent with uart_event_app_level_ack</t>
-  </si>
-  <si>
-    <t>uart_set_bt_tof_state</t>
-  </si>
-  <si>
-    <t>0500</t>
-  </si>
-  <si>
-    <r>
-      <t>[bt_state]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[bt_adv_name_char0]...[bt_adv_name_charN]</t>
-    </r>
-  </si>
-  <si>
-    <t>(rssi and tof model should be sent by the target)</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>{node_M+1_report}….{node_H_report}</t>
-  </si>
-  <si>
-    <t>{node_H+1_report}….{node_N_report}</t>
-  </si>
-  <si>
-    <r>
-      <t>uart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_response</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bt_neighbors_report_start</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_response</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bt_neighbors_report_more_data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>uart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_response</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_bt_neighbors_report_end_of_data</t>
-    </r>
-  </si>
-  <si>
-    <t>0281*</t>
-  </si>
-  <si>
-    <t>0282*</t>
-  </si>
-  <si>
-    <t>0283*</t>
-  </si>
-  <si>
-    <t>*there are actually events, not responses</t>
-  </si>
-  <si>
-    <t>uart_request_bt_tof_report</t>
-  </si>
-  <si>
-    <t>[interval 31:24][interval 23:16][interval 15:8][interval 7:0]</t>
-  </si>
-  <si>
-    <t>00A1</t>
-  </si>
-  <si>
-    <t>01A1</t>
-  </si>
-  <si>
-    <t>uart_event_bt_tof_start</t>
-  </si>
-  <si>
-    <t>uart_event_bt_tof_more_data</t>
-  </si>
-  <si>
-    <t>uart_event_bt_tof_end_of_data</t>
-  </si>
-  <si>
-    <t>00A2</t>
-  </si>
-  <si>
-    <t>00A3</t>
-  </si>
-  <si>
-    <t>{node_1_tof_report}{node_2_tof_report}…{node_M_tof_report}</t>
-  </si>
-  <si>
-    <t>{node_M+1_tof_report}….{node_H_tof_report}</t>
-  </si>
-  <si>
-    <t>{node_H+1_tof_report}….{node_N_tof_report}</t>
-  </si>
-  <si>
-    <t>tof_report to be defined, but similar to the other</t>
-  </si>
-  <si>
-    <t>uart_set_bt_tof_kf_parameters</t>
-  </si>
-  <si>
-    <t>[tof_state][buff_len 15:8][buff_len 7:0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[KF_settings_like_covariance_matrices] </t>
-  </si>
-  <si>
-    <t>0501</t>
+      <t>] * NB: IT LOOKS LIKE PKT TYPE AND PKT LEN HERE ARE SWAPPED</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1023,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1054,6 +1072,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1373,7 +1394,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1446,7 @@
         <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
@@ -1445,13 +1466,13 @@
         <v>105</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="13">
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,47 +1497,47 @@
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1662,13 +1683,13 @@
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
@@ -1798,10 +1819,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
         <v>36</v>
@@ -1812,13 +1833,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
@@ -1826,13 +1847,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>37</v>
@@ -1840,7 +1861,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,7 +1872,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>28</v>
@@ -1952,14 +1973,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D49" s="13">
         <v>3</v>
@@ -1967,19 +1988,19 @@
     </row>
     <row r="50" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="D50" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
